--- a/Data/Population-in-urban-centers-by-sex-and-urban-center.xlsx
+++ b/Data/Population-in-urban-centers-by-sex-and-urban-center.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DTE-Datathon\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0799D4E-5548-4EC3-8EB2-4ACBB52F9A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928B583B-76D6-4A76-82D5-FE516C16C942}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="2840" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Pop by Urban Center and Sex" sheetId="1" r:id="rId1"/>
-    <sheet name="Metadata" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Pop by Urban Center and Sex" sheetId="1" r:id="rId2"/>
+    <sheet name="Metadata" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Pop by Urban Center and Sex'!$A$1:$E$308</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,10 +33,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1120,7 +1127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1137,12 +1144,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1183,6 +1301,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1230,6 +1357,2956 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="pc" refreshedDate="45194.661042476851" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="307" xr:uid="{641040EF-E1ED-4AAA-AC45-35F5EB3F6504}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E308" sheet="Pop by Urban Center and Sex"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="URBAN CENTER" numFmtId="0">
+      <sharedItems count="307">
+        <s v="NAIROBI CITY"/>
+        <s v="MOMBASA"/>
+        <s v="NAKURU"/>
+        <s v="RUIRU"/>
+        <s v="ELDORET"/>
+        <s v="KISUMU"/>
+        <s v="KIKUYU"/>
+        <s v="THIKA"/>
+        <s v="NAIVASHA"/>
+        <s v="KARURI"/>
+        <s v="ONGATA RONGAI"/>
+        <s v="GARISSA"/>
+        <s v="KITALE"/>
+        <s v="JUJA"/>
+        <s v="KITENGELA"/>
+        <s v="KIAMBU"/>
+        <s v="MLOLONGO"/>
+        <s v="MALINDI"/>
+        <s v="MANDERA"/>
+        <s v="KISII"/>
+        <s v="KAKAMEGA"/>
+        <s v="NGONG"/>
+        <s v="MTWAPA"/>
+        <s v="WAJIR"/>
+        <s v="LODWAR"/>
+        <s v="LIMURU"/>
+        <s v="ATHI RIVER"/>
+        <s v="MERU"/>
+        <s v="NYERI"/>
+        <s v="ISIOLO"/>
+        <s v="UKUNDA"/>
+        <s v="KISERIAN"/>
+        <s v="KILIFI"/>
+        <s v="NANYUKI"/>
+        <s v="BUSIA"/>
+        <s v="MIGORI"/>
+        <s v="BUNGOMA"/>
+        <s v="NAROK"/>
+        <s v="EMBU"/>
+        <s v="MACHAKOS"/>
+        <s v="GITHUNGURI"/>
+        <s v="EL WAK"/>
+        <s v="GILGIL"/>
+        <s v="KIMILILI"/>
+        <s v="KERICHO"/>
+        <s v="VOI"/>
+        <s v="WANGURU"/>
+        <s v="HABASWEIN"/>
+        <s v="TURI"/>
+        <s v="MOYALE"/>
+        <s v="HOMA BAY"/>
+        <s v="KENOL"/>
+        <s v="MASALANI"/>
+        <s v="MURANG'A"/>
+        <s v="WEBUYE"/>
+        <s v="NJORO"/>
+        <s v="KAPSABET"/>
+        <s v="MUMIAS"/>
+        <s v="NYAHURURU"/>
+        <s v="MARSABIT"/>
+        <s v="RHAMU"/>
+        <s v="SIAYA"/>
+        <s v="MARIAKANI"/>
+        <s v="MARALAL"/>
+        <s v="MAIRO INYA"/>
+        <s v="KERUGOYA"/>
+        <s v="KITUI"/>
+        <s v="MAKUTANO"/>
+        <s v="ELBURGON"/>
+        <s v="WATAMU"/>
+        <s v="LAMU"/>
+        <s v="KAJIADO"/>
+        <s v="NYAMIRA"/>
+        <s v="ISEBANIA"/>
+        <s v="KARATINA"/>
+        <s v="KAKUMA"/>
+        <s v="LAFEY"/>
+        <s v="BONDO"/>
+        <s v="KABARNET"/>
+        <s v="CHUKA"/>
+        <s v="KEHANCHA"/>
+        <s v="MAUA"/>
+        <s v="TAVETA"/>
+        <s v="TAKABA"/>
+        <s v="ELDAMA RAVINE"/>
+        <s v="HOLA"/>
+        <s v="MAI MAHIU"/>
+        <s v="RONGO"/>
+        <s v="OYUGIS"/>
+        <s v="WOTE"/>
+        <s v="EMALI"/>
+        <s v="GAR-BATULA"/>
+        <s v="MBALE"/>
+        <s v="MWINGI"/>
+        <s v="AWENDO"/>
+        <s v="KIMININI"/>
+        <s v="MOI'S BRIDGE"/>
+        <s v="MAZERAS"/>
+        <s v="MALABA"/>
+        <s v="MAKINDU"/>
+        <s v="BANISA"/>
+        <s v="MSAMBWENI"/>
+        <s v="NAMANGA"/>
+        <s v="MBITA"/>
+        <s v="ISINYA"/>
+        <s v="BUTE"/>
+        <s v="KAWAIDA"/>
+        <s v="KAGIO"/>
+        <s v="BURA"/>
+        <s v="SUNEKA"/>
+        <s v="LITEIN"/>
+        <s v="MOGOTIO"/>
+        <s v="LUANDA"/>
+        <s v="OL KALOU"/>
+        <s v="RUMURUTI"/>
+        <s v="LOKICHAR"/>
+        <s v="CHAVAKALI"/>
+        <s v="ITEN"/>
+        <s v="MAKUTANO (KYUMBI)"/>
+        <s v="ELDAS"/>
+        <s v="PORT VICTORIA"/>
+        <s v="VIPINGO"/>
+        <s v="MATUU"/>
+        <s v="MAJENGO"/>
+        <s v="MODOGASHE"/>
+        <s v="MAU NAROK"/>
+        <s v="AHERO"/>
+        <s v="IJARA"/>
+        <s v="BOMET"/>
+        <s v="LOKICHOGGIO"/>
+        <s v="DADAAB"/>
+        <s v="TALA"/>
+        <s v="SAGANA"/>
+        <s v="KINNA"/>
+        <s v="GONGONI"/>
+        <s v="MERTI"/>
+        <s v="KEROKA"/>
+        <s v="KILGORIS"/>
+        <s v="MATUNDA"/>
+        <s v="GITHUNGURI "/>
+        <s v="TIMAU"/>
+        <s v="LOITOKTOK"/>
+        <s v="KAINUK"/>
+        <s v="SUBUKIA"/>
+        <s v="SINDO"/>
+        <s v="KANGUNDO"/>
+        <s v="KIMANA"/>
+        <s v="KWALE"/>
+        <s v="CHWELE"/>
+        <s v="MWATATE"/>
+        <s v="SALGAA"/>
+        <s v="MARIGAT"/>
+        <s v="KUTUS"/>
+        <s v="SULTAN HAMUD"/>
+        <s v="MARAGUA"/>
+        <s v="KIBWEZI"/>
+        <s v="RODI KOPANY"/>
+        <s v="NARO MORU"/>
+        <s v="NANDI HILLS"/>
+        <s v="USENGE"/>
+        <s v="GATUNDU"/>
+        <s v="GIRIFTU"/>
+        <s v="BROOKE BOND"/>
+        <s v="IL BISSIL"/>
+        <s v="SOLOLO"/>
+        <s v="NKUBU"/>
+        <s v="CHOGORIA"/>
+        <s v="BUTERE"/>
+        <s v="SHIANDA"/>
+        <s v="MUHORONI"/>
+        <s v="GARSEN"/>
+        <s v="MARERENI"/>
+        <s v="KAPSOKWONY"/>
+        <s v="UGUNJA"/>
+        <s v="SORI"/>
+        <s v="KALOLENI"/>
+        <s v="SONDU"/>
+        <s v="KIMBIMBI"/>
+        <s v="MASENO"/>
+        <s v="OTHAYA"/>
+        <s v="MUKURWEINI"/>
+        <s v="MWISHO WA RAMI"/>
+        <s v="BURA EAST"/>
+        <s v="KANGEMA"/>
+        <s v="KENDU BAY"/>
+        <s v="TING'ANG'A"/>
+        <s v="LOLGORIAN"/>
+        <s v="KIJAURI"/>
+        <s v="CHAKA"/>
+        <s v="MPEKETONI"/>
+        <s v="KINANGO"/>
+        <s v="MTITO ANDEI"/>
+        <s v="OLOLUNGA"/>
+        <s v="GITHIGA"/>
+        <s v="RIRONI"/>
+        <s v="NDUNDORI"/>
+        <s v="CHEBILAT"/>
+        <s v="LAARE"/>
+        <s v="ENGINEER"/>
+        <s v="LOIYANGALANI"/>
+        <s v="NORTH HORR"/>
+        <s v="MAJI MAZURI"/>
+        <s v="MALAVA"/>
+        <s v="KATITO"/>
+        <s v="AWASI"/>
+        <s v="LAISAMIS"/>
+        <s v="NAIRAGIE NGARE"/>
+        <s v="RUNYENJES"/>
+        <s v="MUHURI BAY"/>
+        <s v="MUSORIOT"/>
+        <s v="KINAMBA"/>
+        <s v="KERINGET"/>
+        <s v="NDHIWA"/>
+        <s v="TIMBOROA"/>
+        <s v="BURNT FOREST"/>
+        <s v="MAUNGU"/>
+        <s v="KEBIRIGO"/>
+        <s v="KAPSOWAR"/>
+        <s v="ILLASIT"/>
+        <s v="JUA KALI"/>
+        <s v="ARCHERS POST"/>
+        <s v="WAMBA"/>
+        <s v="SAMBURU"/>
+        <s v="ISINETI"/>
+        <s v="CHEPTAIS"/>
+        <s v="KIMENDE"/>
+        <s v="NDUNYU NJERU"/>
+        <s v="SIAKAGO"/>
+        <s v="KATHIANI"/>
+        <s v="BARAGOI"/>
+        <s v="MOKOWE"/>
+        <s v="SOTIK"/>
+        <s v="AMAGORO"/>
+        <s v="SEGA"/>
+        <s v="WUNDANYI"/>
+        <s v="KANGARI"/>
+        <s v="NYANDIWA BEACH"/>
+        <s v="KIGANJO"/>
+        <s v="NAMBALE"/>
+        <s v="SEREM"/>
+        <s v="NJABINI"/>
+        <s v="OGEMBO"/>
+        <s v="MACKINON ROAD"/>
+        <s v="KHAYEGA"/>
+        <s v="ROMBO"/>
+        <s v="MOSOCHO"/>
+        <s v="KIRIAINI"/>
+        <s v="NDORI"/>
+        <s v="KAGUMO"/>
+        <s v="MASII"/>
+        <s v="FUNYULA"/>
+        <s v="MAGONGA"/>
+        <s v="MWEIGA"/>
+        <s v="NYANGUSU"/>
+        <s v="KAPSOIT"/>
+        <s v="MAGENA"/>
+        <s v="NTULELE"/>
+        <s v="ORTUM"/>
+        <s v="OLDONYO SABUK"/>
+        <s v="MITUNGUU"/>
+        <s v="KIKIMA"/>
+        <s v="KAPCHEROP"/>
+        <s v="YALA"/>
+        <s v="BAHATI"/>
+        <s v="MULOT"/>
+        <s v="LONDIAN"/>
+        <s v="TARBAJ"/>
+        <s v="CHEPSION"/>
+        <s v="KIANYAGA"/>
+        <s v="RABUOR"/>
+        <s v="KITHIMANI"/>
+        <s v="TABAKA"/>
+        <s v="TOTAL"/>
+        <s v="FAZA"/>
+        <s v="OLENGURUONE"/>
+        <s v="KAMPI YA MOTO"/>
+        <s v="MARIMANTI"/>
+        <s v="ENDARASHA"/>
+        <s v="KIBOKO"/>
+        <s v="KENYENYA"/>
+        <s v="KIPINI"/>
+        <s v="KINUNGI"/>
+        <s v="TURBO"/>
+        <s v="LUNGA LUNGA"/>
+        <s v="IKINU"/>
+        <s v="MASIMBA"/>
+        <s v="KAPKATET"/>
+        <s v="NGEWA"/>
+        <s v="WIYUMIRIRIE"/>
+        <s v="SABA SABA"/>
+        <s v="KABATI"/>
+        <s v="SIKUTA MARMAR"/>
+        <s v="KARUGA"/>
+        <s v="KESSES"/>
+        <s v="NUNGUNI"/>
+        <s v="KASUKU"/>
+        <s v="WAMUNYU"/>
+        <s v="MUCHORWI"/>
+        <s v="KIIRUA"/>
+        <s v="MAKUTANO "/>
+        <s v="EWUASO KEDONG"/>
+        <s v="OL JORO OROK"/>
+        <s v="RONGAI"/>
+        <s v="SIRISIA"/>
+        <s v="BARATON"/>
+        <s v="KIJABE"/>
+        <s v="BAMBA"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="COUNTY" numFmtId="0">
+      <sharedItems count="60">
+        <s v="NAIROBI CITY"/>
+        <s v="MOMBASA"/>
+        <s v="NAKURU"/>
+        <s v="KIAMBU"/>
+        <s v="UASIN GISHU"/>
+        <s v="KISUMU"/>
+        <s v="MURANG'A/KIAMBU"/>
+        <s v="KAJIADO"/>
+        <s v="TANA RIVER/GARISSA"/>
+        <s v="TRANS NZOIA"/>
+        <s v="MACHAKOS"/>
+        <s v="KILIFI"/>
+        <s v="MANDERA"/>
+        <s v="NYAMIRA/KISII"/>
+        <s v="KAKAMEGA"/>
+        <s v="WAJIR"/>
+        <s v="TURKANA"/>
+        <s v="MERU"/>
+        <s v="NYERI"/>
+        <s v="ISIOLO"/>
+        <s v="KWALE"/>
+        <s v="NYERI/LAIKIPIA"/>
+        <s v="BUSIA"/>
+        <s v="MIGORI"/>
+        <s v="BUNGOMA"/>
+        <s v="NAROK"/>
+        <s v="EMBU"/>
+        <s v="KERICHO"/>
+        <s v="TAITA/TAVETA"/>
+        <s v="KIRINYAGA"/>
+        <s v="MARSABIT"/>
+        <s v="HOMA BAY"/>
+        <s v="MURANG'A"/>
+        <s v="GARISSA"/>
+        <s v="NANDI"/>
+        <s v="LAIKIPIA"/>
+        <s v="SIAYA"/>
+        <s v="KWALE/KILIFI"/>
+        <s v="SAMBURU"/>
+        <s v="NYANDARUA"/>
+        <s v="KITUI"/>
+        <s v="WEST POKOT"/>
+        <s v="LAMU"/>
+        <s v="NYAMIRA"/>
+        <s v="BARINGO"/>
+        <s v="THARAKA-NITHI"/>
+        <s v="TANA RIVER"/>
+        <s v="MAKUENI"/>
+        <s v="MAKUENI/KAJIADO"/>
+        <s v="VIHIGA"/>
+        <s v="KISII"/>
+        <s v="NAKURU/BARINGO"/>
+        <s v="ELGEYO/MARAKWET"/>
+        <s v="ISIOLO/GARISSA"/>
+        <s v="BOMET"/>
+        <s v="UASIN GISHU/KAKAMEGA"/>
+        <s v="KISUMU/KERICHO"/>
+        <s v="BOMET/NYAMIRA"/>
+        <s v="VIHIGA/NANDI"/>
+        <s v="NAROK/KISII"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Total" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2015" maxValue="4397073"/>
+    </cacheField>
+    <cacheField name="Male" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="878" maxValue="2192452"/>
+    </cacheField>
+    <cacheField name="Female" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1007" maxValue="2204376"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="307">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4397073"/>
+    <n v="2192452"/>
+    <n v="2204376"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1208333"/>
+    <n v="610257"/>
+    <n v="598046"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="570674"/>
+    <n v="280701"/>
+    <n v="289941"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="490120"/>
+    <n v="239013"/>
+    <n v="251075"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="475716"/>
+    <n v="237223"/>
+    <n v="238477"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="397957"/>
+    <n v="195432"/>
+    <n v="202515"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="323881"/>
+    <n v="157008"/>
+    <n v="166855"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="6"/>
+    <n v="251407"/>
+    <n v="123308"/>
+    <n v="128081"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="198444"/>
+    <n v="99109"/>
+    <n v="99313"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="3"/>
+    <n v="194342"/>
+    <n v="94707"/>
+    <n v="99623"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="7"/>
+    <n v="172569"/>
+    <n v="84969"/>
+    <n v="87592"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <n v="163399"/>
+    <n v="81782"/>
+    <n v="81611"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="9"/>
+    <n v="162174"/>
+    <n v="80521"/>
+    <n v="81648"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="3"/>
+    <n v="156041"/>
+    <n v="77304"/>
+    <n v="78728"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="7"/>
+    <n v="154436"/>
+    <n v="75567"/>
+    <n v="78864"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="3"/>
+    <n v="147870"/>
+    <n v="70758"/>
+    <n v="77095"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="10"/>
+    <n v="136351"/>
+    <n v="69163"/>
+    <n v="67188"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="11"/>
+    <n v="119859"/>
+    <n v="58113"/>
+    <n v="61742"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <n v="114718"/>
+    <n v="60053"/>
+    <n v="54660"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="13"/>
+    <n v="112417"/>
+    <n v="55594"/>
+    <n v="56816"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="14"/>
+    <n v="107227"/>
+    <n v="53539"/>
+    <n v="53683"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="7"/>
+    <n v="102323"/>
+    <n v="50463"/>
+    <n v="51857"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="11"/>
+    <n v="90677"/>
+    <n v="43890"/>
+    <n v="46786"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="15"/>
+    <n v="90116"/>
+    <n v="47940"/>
+    <n v="42173"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="16"/>
+    <n v="82970"/>
+    <n v="41583"/>
+    <n v="41387"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="3"/>
+    <n v="81316"/>
+    <n v="40340"/>
+    <n v="40976"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="10"/>
+    <n v="81302"/>
+    <n v="41086"/>
+    <n v="40214"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="17"/>
+    <n v="80191"/>
+    <n v="39865"/>
+    <n v="40322"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="18"/>
+    <n v="80081"/>
+    <n v="39382"/>
+    <n v="40697"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="19"/>
+    <n v="78650"/>
+    <n v="38687"/>
+    <n v="39958"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="20"/>
+    <n v="77686"/>
+    <n v="38766"/>
+    <n v="38916"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="7"/>
+    <n v="76903"/>
+    <n v="37612"/>
+    <n v="39287"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="11"/>
+    <n v="74270"/>
+    <n v="35790"/>
+    <n v="38479"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="21"/>
+    <n v="72813"/>
+    <n v="36343"/>
+    <n v="36468"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="22"/>
+    <n v="71886"/>
+    <n v="34978"/>
+    <n v="36908"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="23"/>
+    <n v="71668"/>
+    <n v="34206"/>
+    <n v="37462"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="24"/>
+    <n v="68031"/>
+    <n v="32903"/>
+    <n v="35126"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="25"/>
+    <n v="65430"/>
+    <n v="32706"/>
+    <n v="32720"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="26"/>
+    <n v="64979"/>
+    <n v="31782"/>
+    <n v="33188"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="10"/>
+    <n v="63767"/>
+    <n v="31240"/>
+    <n v="32524"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="10"/>
+    <n v="63319"/>
+    <n v="30889"/>
+    <n v="32427"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="12"/>
+    <n v="60732"/>
+    <n v="27852"/>
+    <n v="32878"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="2"/>
+    <n v="60711"/>
+    <n v="31069"/>
+    <n v="29640"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="24"/>
+    <n v="56050"/>
+    <n v="27225"/>
+    <n v="28824"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="27"/>
+    <n v="53804"/>
+    <n v="28169"/>
+    <n v="25631"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="28"/>
+    <n v="53353"/>
+    <n v="26719"/>
+    <n v="26629"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="29"/>
+    <n v="51722"/>
+    <n v="24846"/>
+    <n v="26868"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="15"/>
+    <n v="49599"/>
+    <n v="27042"/>
+    <n v="22541"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="2"/>
+    <n v="48356"/>
+    <n v="23496"/>
+    <n v="24857"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="30"/>
+    <n v="47850"/>
+    <n v="24202"/>
+    <n v="23648"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="31"/>
+    <n v="44949"/>
+    <n v="21440"/>
+    <n v="23507"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <x v="32"/>
+    <n v="44086"/>
+    <n v="21209"/>
+    <n v="22876"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="33"/>
+    <n v="43642"/>
+    <n v="23662"/>
+    <n v="19979"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="32"/>
+    <n v="43314"/>
+    <n v="21056"/>
+    <n v="22258"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="24"/>
+    <n v="42642"/>
+    <n v="20746"/>
+    <n v="21894"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="2"/>
+    <n v="42173"/>
+    <n v="20702"/>
+    <n v="21471"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="34"/>
+    <n v="41997"/>
+    <n v="21000"/>
+    <n v="20995"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="14"/>
+    <n v="41942"/>
+    <n v="19990"/>
+    <n v="21952"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <x v="35"/>
+    <n v="37650"/>
+    <n v="18304"/>
+    <n v="19345"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="30"/>
+    <n v="36289"/>
+    <n v="18846"/>
+    <n v="17441"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="12"/>
+    <n v="35644"/>
+    <n v="18430"/>
+    <n v="17213"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="36"/>
+    <n v="33153"/>
+    <n v="15855"/>
+    <n v="17298"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="37"/>
+    <n v="31715"/>
+    <n v="15511"/>
+    <n v="16204"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="38"/>
+    <n v="31350"/>
+    <n v="15831"/>
+    <n v="15519"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="39"/>
+    <n v="30527"/>
+    <n v="15027"/>
+    <n v="15500"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <x v="29"/>
+    <n v="30045"/>
+    <n v="14474"/>
+    <n v="15571"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <x v="40"/>
+    <n v="29062"/>
+    <n v="14223"/>
+    <n v="14838"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <x v="41"/>
+    <n v="28469"/>
+    <n v="13881"/>
+    <n v="14588"/>
+  </r>
+  <r>
+    <x v="68"/>
+    <x v="2"/>
+    <n v="28359"/>
+    <n v="14254"/>
+    <n v="14105"/>
+  </r>
+  <r>
+    <x v="69"/>
+    <x v="11"/>
+    <n v="27857"/>
+    <n v="14030"/>
+    <n v="13827"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <x v="42"/>
+    <n v="25385"/>
+    <n v="12900"/>
+    <n v="12484"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <x v="7"/>
+    <n v="24678"/>
+    <n v="12409"/>
+    <n v="12267"/>
+  </r>
+  <r>
+    <x v="72"/>
+    <x v="43"/>
+    <n v="24483"/>
+    <n v="11823"/>
+    <n v="12660"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <x v="23"/>
+    <n v="23891"/>
+    <n v="11569"/>
+    <n v="12321"/>
+  </r>
+  <r>
+    <x v="74"/>
+    <x v="18"/>
+    <n v="23552"/>
+    <n v="11100"/>
+    <n v="12451"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <x v="16"/>
+    <n v="22984"/>
+    <n v="12050"/>
+    <n v="10934"/>
+  </r>
+  <r>
+    <x v="76"/>
+    <x v="12"/>
+    <n v="22882"/>
+    <n v="10745"/>
+    <n v="12136"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <x v="36"/>
+    <n v="22712"/>
+    <n v="10680"/>
+    <n v="12030"/>
+  </r>
+  <r>
+    <x v="78"/>
+    <x v="44"/>
+    <n v="22474"/>
+    <n v="10943"/>
+    <n v="11531"/>
+  </r>
+  <r>
+    <x v="79"/>
+    <x v="45"/>
+    <n v="22388"/>
+    <n v="10913"/>
+    <n v="11474"/>
+  </r>
+  <r>
+    <x v="80"/>
+    <x v="23"/>
+    <n v="22194"/>
+    <n v="10836"/>
+    <n v="11358"/>
+  </r>
+  <r>
+    <x v="81"/>
+    <x v="17"/>
+    <n v="22121"/>
+    <n v="10695"/>
+    <n v="11426"/>
+  </r>
+  <r>
+    <x v="82"/>
+    <x v="28"/>
+    <n v="22018"/>
+    <n v="10880"/>
+    <n v="11138"/>
+  </r>
+  <r>
+    <x v="83"/>
+    <x v="12"/>
+    <n v="21517"/>
+    <n v="10731"/>
+    <n v="10786"/>
+  </r>
+  <r>
+    <x v="84"/>
+    <x v="44"/>
+    <n v="21385"/>
+    <n v="10482"/>
+    <n v="10903"/>
+  </r>
+  <r>
+    <x v="85"/>
+    <x v="46"/>
+    <n v="20912"/>
+    <n v="10309"/>
+    <n v="10603"/>
+  </r>
+  <r>
+    <x v="86"/>
+    <x v="2"/>
+    <n v="20823"/>
+    <n v="10284"/>
+    <n v="10534"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="23"/>
+    <n v="20688"/>
+    <n v="9690"/>
+    <n v="10998"/>
+  </r>
+  <r>
+    <x v="88"/>
+    <x v="31"/>
+    <n v="19947"/>
+    <n v="9286"/>
+    <n v="10661"/>
+  </r>
+  <r>
+    <x v="89"/>
+    <x v="47"/>
+    <n v="19725"/>
+    <n v="9916"/>
+    <n v="9809"/>
+  </r>
+  <r>
+    <x v="90"/>
+    <x v="48"/>
+    <n v="18325"/>
+    <n v="9435"/>
+    <n v="8890"/>
+  </r>
+  <r>
+    <x v="91"/>
+    <x v="19"/>
+    <n v="17443"/>
+    <n v="9028"/>
+    <n v="8415"/>
+  </r>
+  <r>
+    <x v="92"/>
+    <x v="49"/>
+    <n v="17404"/>
+    <n v="8263"/>
+    <n v="9141"/>
+  </r>
+  <r>
+    <x v="93"/>
+    <x v="40"/>
+    <n v="17025"/>
+    <n v="8140"/>
+    <n v="8885"/>
+  </r>
+  <r>
+    <x v="94"/>
+    <x v="23"/>
+    <n v="16815"/>
+    <n v="8338"/>
+    <n v="8476"/>
+  </r>
+  <r>
+    <x v="95"/>
+    <x v="9"/>
+    <n v="16560"/>
+    <n v="7980"/>
+    <n v="8580"/>
+  </r>
+  <r>
+    <x v="96"/>
+    <x v="4"/>
+    <n v="16355"/>
+    <n v="7945"/>
+    <n v="8410"/>
+  </r>
+  <r>
+    <x v="97"/>
+    <x v="37"/>
+    <n v="16254"/>
+    <n v="7942"/>
+    <n v="8312"/>
+  </r>
+  <r>
+    <x v="98"/>
+    <x v="22"/>
+    <n v="15581"/>
+    <n v="7573"/>
+    <n v="8008"/>
+  </r>
+  <r>
+    <x v="99"/>
+    <x v="47"/>
+    <n v="15038"/>
+    <n v="7658"/>
+    <n v="7380"/>
+  </r>
+  <r>
+    <x v="100"/>
+    <x v="12"/>
+    <n v="14974"/>
+    <n v="7737"/>
+    <n v="7236"/>
+  </r>
+  <r>
+    <x v="101"/>
+    <x v="20"/>
+    <n v="14951"/>
+    <n v="7272"/>
+    <n v="7679"/>
+  </r>
+  <r>
+    <x v="102"/>
+    <x v="7"/>
+    <n v="14922"/>
+    <n v="7579"/>
+    <n v="7343"/>
+  </r>
+  <r>
+    <x v="103"/>
+    <x v="31"/>
+    <n v="14916"/>
+    <n v="7166"/>
+    <n v="7748"/>
+  </r>
+  <r>
+    <x v="104"/>
+    <x v="7"/>
+    <n v="14429"/>
+    <n v="7300"/>
+    <n v="7129"/>
+  </r>
+  <r>
+    <x v="105"/>
+    <x v="15"/>
+    <n v="14108"/>
+    <n v="7275"/>
+    <n v="6832"/>
+  </r>
+  <r>
+    <x v="106"/>
+    <x v="3"/>
+    <n v="14038"/>
+    <n v="6830"/>
+    <n v="7208"/>
+  </r>
+  <r>
+    <x v="107"/>
+    <x v="29"/>
+    <n v="13961"/>
+    <n v="6294"/>
+    <n v="7663"/>
+  </r>
+  <r>
+    <x v="108"/>
+    <x v="46"/>
+    <n v="13650"/>
+    <n v="6977"/>
+    <n v="6673"/>
+  </r>
+  <r>
+    <x v="109"/>
+    <x v="50"/>
+    <n v="13405"/>
+    <n v="6276"/>
+    <n v="7129"/>
+  </r>
+  <r>
+    <x v="110"/>
+    <x v="27"/>
+    <n v="13403"/>
+    <n v="6620"/>
+    <n v="6783"/>
+  </r>
+  <r>
+    <x v="111"/>
+    <x v="51"/>
+    <n v="13366"/>
+    <n v="6478"/>
+    <n v="6885"/>
+  </r>
+  <r>
+    <x v="112"/>
+    <x v="49"/>
+    <n v="13319"/>
+    <n v="6354"/>
+    <n v="6963"/>
+  </r>
+  <r>
+    <x v="113"/>
+    <x v="39"/>
+    <n v="13234"/>
+    <n v="6566"/>
+    <n v="6667"/>
+  </r>
+  <r>
+    <x v="114"/>
+    <x v="35"/>
+    <n v="13056"/>
+    <n v="6696"/>
+    <n v="6359"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="16"/>
+    <n v="12676"/>
+    <n v="6735"/>
+    <n v="5940"/>
+  </r>
+  <r>
+    <x v="116"/>
+    <x v="49"/>
+    <n v="12674"/>
+    <n v="6073"/>
+    <n v="6601"/>
+  </r>
+  <r>
+    <x v="117"/>
+    <x v="52"/>
+    <n v="12630"/>
+    <n v="6126"/>
+    <n v="6504"/>
+  </r>
+  <r>
+    <x v="118"/>
+    <x v="10"/>
+    <n v="12396"/>
+    <n v="6643"/>
+    <n v="5753"/>
+  </r>
+  <r>
+    <x v="119"/>
+    <x v="15"/>
+    <n v="12270"/>
+    <n v="6636"/>
+    <n v="5633"/>
+  </r>
+  <r>
+    <x v="120"/>
+    <x v="22"/>
+    <n v="12194"/>
+    <n v="5916"/>
+    <n v="6278"/>
+  </r>
+  <r>
+    <x v="121"/>
+    <x v="11"/>
+    <n v="12183"/>
+    <n v="6150"/>
+    <n v="6033"/>
+  </r>
+  <r>
+    <x v="122"/>
+    <x v="10"/>
+    <n v="12073"/>
+    <n v="5687"/>
+    <n v="6386"/>
+  </r>
+  <r>
+    <x v="123"/>
+    <x v="49"/>
+    <n v="11913"/>
+    <n v="5785"/>
+    <n v="6128"/>
+  </r>
+  <r>
+    <x v="124"/>
+    <x v="53"/>
+    <n v="11814"/>
+    <n v="6039"/>
+    <n v="5775"/>
+  </r>
+  <r>
+    <x v="125"/>
+    <x v="2"/>
+    <n v="11806"/>
+    <n v="5810"/>
+    <n v="5995"/>
+  </r>
+  <r>
+    <x v="126"/>
+    <x v="5"/>
+    <n v="11801"/>
+    <n v="5384"/>
+    <n v="6414"/>
+  </r>
+  <r>
+    <x v="127"/>
+    <x v="33"/>
+    <n v="11792"/>
+    <n v="7248"/>
+    <n v="4544"/>
+  </r>
+  <r>
+    <x v="128"/>
+    <x v="54"/>
+    <n v="11765"/>
+    <n v="6037"/>
+    <n v="5728"/>
+  </r>
+  <r>
+    <x v="129"/>
+    <x v="16"/>
+    <n v="11626"/>
+    <n v="5915"/>
+    <n v="5711"/>
+  </r>
+  <r>
+    <x v="130"/>
+    <x v="33"/>
+    <n v="11525"/>
+    <n v="6532"/>
+    <n v="4993"/>
+  </r>
+  <r>
+    <x v="131"/>
+    <x v="10"/>
+    <n v="11446"/>
+    <n v="5542"/>
+    <n v="5903"/>
+  </r>
+  <r>
+    <x v="132"/>
+    <x v="29"/>
+    <n v="11203"/>
+    <n v="5462"/>
+    <n v="5741"/>
+  </r>
+  <r>
+    <x v="133"/>
+    <x v="19"/>
+    <n v="11175"/>
+    <n v="5739"/>
+    <n v="5436"/>
+  </r>
+  <r>
+    <x v="134"/>
+    <x v="11"/>
+    <n v="10993"/>
+    <n v="5295"/>
+    <n v="5698"/>
+  </r>
+  <r>
+    <x v="135"/>
+    <x v="19"/>
+    <n v="10990"/>
+    <n v="5682"/>
+    <n v="5308"/>
+  </r>
+  <r>
+    <x v="136"/>
+    <x v="13"/>
+    <n v="10881"/>
+    <n v="5149"/>
+    <n v="5731"/>
+  </r>
+  <r>
+    <x v="137"/>
+    <x v="25"/>
+    <n v="10845"/>
+    <n v="5281"/>
+    <n v="5563"/>
+  </r>
+  <r>
+    <x v="138"/>
+    <x v="55"/>
+    <n v="10807"/>
+    <n v="5208"/>
+    <n v="5597"/>
+  </r>
+  <r>
+    <x v="139"/>
+    <x v="3"/>
+    <n v="10615"/>
+    <n v="5057"/>
+    <n v="5558"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="17"/>
+    <n v="10571"/>
+    <n v="5144"/>
+    <n v="5427"/>
+  </r>
+  <r>
+    <x v="141"/>
+    <x v="7"/>
+    <n v="10568"/>
+    <n v="5156"/>
+    <n v="5412"/>
+  </r>
+  <r>
+    <x v="142"/>
+    <x v="16"/>
+    <n v="10535"/>
+    <n v="5314"/>
+    <n v="5221"/>
+  </r>
+  <r>
+    <x v="143"/>
+    <x v="2"/>
+    <n v="10344"/>
+    <n v="4949"/>
+    <n v="5395"/>
+  </r>
+  <r>
+    <x v="144"/>
+    <x v="31"/>
+    <n v="10286"/>
+    <n v="4866"/>
+    <n v="5420"/>
+  </r>
+  <r>
+    <x v="145"/>
+    <x v="10"/>
+    <n v="10258"/>
+    <n v="5094"/>
+    <n v="5164"/>
+  </r>
+  <r>
+    <x v="146"/>
+    <x v="7"/>
+    <n v="10116"/>
+    <n v="4870"/>
+    <n v="5246"/>
+  </r>
+  <r>
+    <x v="147"/>
+    <x v="20"/>
+    <n v="10063"/>
+    <n v="4888"/>
+    <n v="5175"/>
+  </r>
+  <r>
+    <x v="148"/>
+    <x v="24"/>
+    <n v="9797"/>
+    <n v="4487"/>
+    <n v="5310"/>
+  </r>
+  <r>
+    <x v="149"/>
+    <x v="28"/>
+    <n v="9572"/>
+    <n v="4617"/>
+    <n v="4955"/>
+  </r>
+  <r>
+    <x v="150"/>
+    <x v="2"/>
+    <n v="9447"/>
+    <n v="4703"/>
+    <n v="4743"/>
+  </r>
+  <r>
+    <x v="151"/>
+    <x v="44"/>
+    <n v="9395"/>
+    <n v="4536"/>
+    <n v="4859"/>
+  </r>
+  <r>
+    <x v="152"/>
+    <x v="29"/>
+    <n v="9143"/>
+    <n v="4441"/>
+    <n v="4702"/>
+  </r>
+  <r>
+    <x v="153"/>
+    <x v="48"/>
+    <n v="8718"/>
+    <n v="4183"/>
+    <n v="4535"/>
+  </r>
+  <r>
+    <x v="154"/>
+    <x v="32"/>
+    <n v="8597"/>
+    <n v="4006"/>
+    <n v="4591"/>
+  </r>
+  <r>
+    <x v="155"/>
+    <x v="47"/>
+    <n v="8143"/>
+    <n v="3957"/>
+    <n v="4186"/>
+  </r>
+  <r>
+    <x v="156"/>
+    <x v="31"/>
+    <n v="8122"/>
+    <n v="3760"/>
+    <n v="4362"/>
+  </r>
+  <r>
+    <x v="157"/>
+    <x v="21"/>
+    <n v="8097"/>
+    <n v="3917"/>
+    <n v="4180"/>
+  </r>
+  <r>
+    <x v="158"/>
+    <x v="34"/>
+    <n v="8032"/>
+    <n v="3982"/>
+    <n v="4050"/>
+  </r>
+  <r>
+    <x v="159"/>
+    <x v="36"/>
+    <n v="7976"/>
+    <n v="3813"/>
+    <n v="4163"/>
+  </r>
+  <r>
+    <x v="160"/>
+    <x v="3"/>
+    <n v="7947"/>
+    <n v="3687"/>
+    <n v="4260"/>
+  </r>
+  <r>
+    <x v="161"/>
+    <x v="15"/>
+    <n v="7935"/>
+    <n v="4322"/>
+    <n v="3612"/>
+  </r>
+  <r>
+    <x v="162"/>
+    <x v="27"/>
+    <n v="7896"/>
+    <n v="3949"/>
+    <n v="3947"/>
+  </r>
+  <r>
+    <x v="163"/>
+    <x v="7"/>
+    <n v="7812"/>
+    <n v="3834"/>
+    <n v="3978"/>
+  </r>
+  <r>
+    <x v="164"/>
+    <x v="30"/>
+    <n v="7683"/>
+    <n v="3929"/>
+    <n v="3754"/>
+  </r>
+  <r>
+    <x v="165"/>
+    <x v="17"/>
+    <n v="7675"/>
+    <n v="3528"/>
+    <n v="4146"/>
+  </r>
+  <r>
+    <x v="166"/>
+    <x v="45"/>
+    <n v="7603"/>
+    <n v="3746"/>
+    <n v="3857"/>
+  </r>
+  <r>
+    <x v="167"/>
+    <x v="14"/>
+    <n v="7596"/>
+    <n v="3503"/>
+    <n v="4092"/>
+  </r>
+  <r>
+    <x v="168"/>
+    <x v="14"/>
+    <n v="7502"/>
+    <n v="3448"/>
+    <n v="4054"/>
+  </r>
+  <r>
+    <x v="169"/>
+    <x v="5"/>
+    <n v="7215"/>
+    <n v="3659"/>
+    <n v="3556"/>
+  </r>
+  <r>
+    <x v="170"/>
+    <x v="46"/>
+    <n v="7176"/>
+    <n v="3463"/>
+    <n v="3713"/>
+  </r>
+  <r>
+    <x v="171"/>
+    <x v="11"/>
+    <n v="7085"/>
+    <n v="3393"/>
+    <n v="3692"/>
+  </r>
+  <r>
+    <x v="172"/>
+    <x v="24"/>
+    <n v="7077"/>
+    <n v="3435"/>
+    <n v="3641"/>
+  </r>
+  <r>
+    <x v="173"/>
+    <x v="36"/>
+    <n v="7060"/>
+    <n v="3297"/>
+    <n v="3763"/>
+  </r>
+  <r>
+    <x v="174"/>
+    <x v="23"/>
+    <n v="7020"/>
+    <n v="3299"/>
+    <n v="3721"/>
+  </r>
+  <r>
+    <x v="175"/>
+    <x v="11"/>
+    <n v="7016"/>
+    <n v="3319"/>
+    <n v="3697"/>
+  </r>
+  <r>
+    <x v="176"/>
+    <x v="56"/>
+    <n v="6869"/>
+    <n v="3294"/>
+    <n v="3575"/>
+  </r>
+  <r>
+    <x v="177"/>
+    <x v="29"/>
+    <n v="6826"/>
+    <n v="3221"/>
+    <n v="3604"/>
+  </r>
+  <r>
+    <x v="178"/>
+    <x v="5"/>
+    <n v="6771"/>
+    <n v="3694"/>
+    <n v="3077"/>
+  </r>
+  <r>
+    <x v="179"/>
+    <x v="18"/>
+    <n v="6650"/>
+    <n v="2975"/>
+    <n v="3675"/>
+  </r>
+  <r>
+    <x v="180"/>
+    <x v="18"/>
+    <n v="6508"/>
+    <n v="3115"/>
+    <n v="3393"/>
+  </r>
+  <r>
+    <x v="181"/>
+    <x v="2"/>
+    <n v="6499"/>
+    <n v="3262"/>
+    <n v="3236"/>
+  </r>
+  <r>
+    <x v="182"/>
+    <x v="33"/>
+    <n v="6496"/>
+    <n v="3530"/>
+    <n v="2965"/>
+  </r>
+  <r>
+    <x v="183"/>
+    <x v="32"/>
+    <n v="6424"/>
+    <n v="3123"/>
+    <n v="3301"/>
+  </r>
+  <r>
+    <x v="184"/>
+    <x v="31"/>
+    <n v="6064"/>
+    <n v="2920"/>
+    <n v="3144"/>
+  </r>
+  <r>
+    <x v="185"/>
+    <x v="3"/>
+    <n v="6059"/>
+    <n v="2814"/>
+    <n v="3245"/>
+  </r>
+  <r>
+    <x v="186"/>
+    <x v="25"/>
+    <n v="6053"/>
+    <n v="3017"/>
+    <n v="3036"/>
+  </r>
+  <r>
+    <x v="187"/>
+    <x v="43"/>
+    <n v="5993"/>
+    <n v="2915"/>
+    <n v="3078"/>
+  </r>
+  <r>
+    <x v="188"/>
+    <x v="18"/>
+    <n v="5970"/>
+    <n v="2872"/>
+    <n v="3098"/>
+  </r>
+  <r>
+    <x v="189"/>
+    <x v="42"/>
+    <n v="5957"/>
+    <n v="2913"/>
+    <n v="3043"/>
+  </r>
+  <r>
+    <x v="190"/>
+    <x v="20"/>
+    <n v="5928"/>
+    <n v="2728"/>
+    <n v="3200"/>
+  </r>
+  <r>
+    <x v="191"/>
+    <x v="47"/>
+    <n v="5626"/>
+    <n v="3305"/>
+    <n v="2321"/>
+  </r>
+  <r>
+    <x v="192"/>
+    <x v="25"/>
+    <n v="5609"/>
+    <n v="2756"/>
+    <n v="2853"/>
+  </r>
+  <r>
+    <x v="193"/>
+    <x v="3"/>
+    <n v="5565"/>
+    <n v="2755"/>
+    <n v="2810"/>
+  </r>
+  <r>
+    <x v="194"/>
+    <x v="3"/>
+    <n v="5544"/>
+    <n v="2631"/>
+    <n v="2913"/>
+  </r>
+  <r>
+    <x v="195"/>
+    <x v="2"/>
+    <n v="5392"/>
+    <n v="2636"/>
+    <n v="2756"/>
+  </r>
+  <r>
+    <x v="196"/>
+    <x v="57"/>
+    <n v="5373"/>
+    <n v="2717"/>
+    <n v="2656"/>
+  </r>
+  <r>
+    <x v="197"/>
+    <x v="17"/>
+    <n v="5358"/>
+    <n v="2656"/>
+    <n v="2702"/>
+  </r>
+  <r>
+    <x v="198"/>
+    <x v="39"/>
+    <n v="5324"/>
+    <n v="2500"/>
+    <n v="2822"/>
+  </r>
+  <r>
+    <x v="199"/>
+    <x v="30"/>
+    <n v="5193"/>
+    <n v="2340"/>
+    <n v="2853"/>
+  </r>
+  <r>
+    <x v="200"/>
+    <x v="30"/>
+    <n v="5177"/>
+    <n v="2776"/>
+    <n v="2401"/>
+  </r>
+  <r>
+    <x v="201"/>
+    <x v="44"/>
+    <n v="5138"/>
+    <n v="2640"/>
+    <n v="2498"/>
+  </r>
+  <r>
+    <x v="202"/>
+    <x v="14"/>
+    <n v="5131"/>
+    <n v="2411"/>
+    <n v="2720"/>
+  </r>
+  <r>
+    <x v="203"/>
+    <x v="5"/>
+    <n v="5098"/>
+    <n v="2378"/>
+    <n v="2720"/>
+  </r>
+  <r>
+    <x v="204"/>
+    <x v="5"/>
+    <n v="5052"/>
+    <n v="2377"/>
+    <n v="2673"/>
+  </r>
+  <r>
+    <x v="205"/>
+    <x v="30"/>
+    <n v="5047"/>
+    <n v="2697"/>
+    <n v="2350"/>
+  </r>
+  <r>
+    <x v="206"/>
+    <x v="25"/>
+    <n v="4954"/>
+    <n v="2444"/>
+    <n v="2510"/>
+  </r>
+  <r>
+    <x v="207"/>
+    <x v="26"/>
+    <n v="4943"/>
+    <n v="2406"/>
+    <n v="2537"/>
+  </r>
+  <r>
+    <x v="208"/>
+    <x v="23"/>
+    <n v="4924"/>
+    <n v="2362"/>
+    <n v="2560"/>
+  </r>
+  <r>
+    <x v="209"/>
+    <x v="34"/>
+    <n v="4916"/>
+    <n v="2364"/>
+    <n v="2552"/>
+  </r>
+  <r>
+    <x v="210"/>
+    <x v="35"/>
+    <n v="4890"/>
+    <n v="2326"/>
+    <n v="2564"/>
+  </r>
+  <r>
+    <x v="211"/>
+    <x v="2"/>
+    <n v="4774"/>
+    <n v="2392"/>
+    <n v="2382"/>
+  </r>
+  <r>
+    <x v="212"/>
+    <x v="31"/>
+    <n v="4762"/>
+    <n v="2182"/>
+    <n v="2580"/>
+  </r>
+  <r>
+    <x v="213"/>
+    <x v="44"/>
+    <n v="4744"/>
+    <n v="2359"/>
+    <n v="2385"/>
+  </r>
+  <r>
+    <x v="214"/>
+    <x v="4"/>
+    <n v="4739"/>
+    <n v="2383"/>
+    <n v="2356"/>
+  </r>
+  <r>
+    <x v="215"/>
+    <x v="28"/>
+    <n v="4713"/>
+    <n v="2328"/>
+    <n v="2385"/>
+  </r>
+  <r>
+    <x v="216"/>
+    <x v="43"/>
+    <n v="4711"/>
+    <n v="2218"/>
+    <n v="2493"/>
+  </r>
+  <r>
+    <x v="217"/>
+    <x v="52"/>
+    <n v="4709"/>
+    <n v="2295"/>
+    <n v="2412"/>
+  </r>
+  <r>
+    <x v="218"/>
+    <x v="7"/>
+    <n v="4631"/>
+    <n v="2162"/>
+    <n v="2469"/>
+  </r>
+  <r>
+    <x v="219"/>
+    <x v="4"/>
+    <n v="4623"/>
+    <n v="2180"/>
+    <n v="2443"/>
+  </r>
+  <r>
+    <x v="220"/>
+    <x v="38"/>
+    <n v="4620"/>
+    <n v="2377"/>
+    <n v="2243"/>
+  </r>
+  <r>
+    <x v="221"/>
+    <x v="38"/>
+    <n v="4580"/>
+    <n v="2290"/>
+    <n v="2290"/>
+  </r>
+  <r>
+    <x v="222"/>
+    <x v="20"/>
+    <n v="4454"/>
+    <n v="2068"/>
+    <n v="2385"/>
+  </r>
+  <r>
+    <x v="223"/>
+    <x v="7"/>
+    <n v="4437"/>
+    <n v="2202"/>
+    <n v="2234"/>
+  </r>
+  <r>
+    <x v="224"/>
+    <x v="24"/>
+    <n v="4419"/>
+    <n v="2124"/>
+    <n v="2295"/>
+  </r>
+  <r>
+    <x v="225"/>
+    <x v="3"/>
+    <n v="4356"/>
+    <n v="2067"/>
+    <n v="2289"/>
+  </r>
+  <r>
+    <x v="226"/>
+    <x v="39"/>
+    <n v="4354"/>
+    <n v="2131"/>
+    <n v="2222"/>
+  </r>
+  <r>
+    <x v="227"/>
+    <x v="26"/>
+    <n v="4315"/>
+    <n v="2078"/>
+    <n v="2237"/>
+  </r>
+  <r>
+    <x v="228"/>
+    <x v="10"/>
+    <n v="4304"/>
+    <n v="2066"/>
+    <n v="2238"/>
+  </r>
+  <r>
+    <x v="229"/>
+    <x v="38"/>
+    <n v="4254"/>
+    <n v="2080"/>
+    <n v="2174"/>
+  </r>
+  <r>
+    <x v="230"/>
+    <x v="42"/>
+    <n v="4249"/>
+    <n v="2260"/>
+    <n v="1989"/>
+  </r>
+  <r>
+    <x v="231"/>
+    <x v="54"/>
+    <n v="4194"/>
+    <n v="2221"/>
+    <n v="1973"/>
+  </r>
+  <r>
+    <x v="232"/>
+    <x v="22"/>
+    <n v="4182"/>
+    <n v="1990"/>
+    <n v="2192"/>
+  </r>
+  <r>
+    <x v="233"/>
+    <x v="36"/>
+    <n v="4179"/>
+    <n v="1838"/>
+    <n v="2340"/>
+  </r>
+  <r>
+    <x v="234"/>
+    <x v="28"/>
+    <n v="4118"/>
+    <n v="2076"/>
+    <n v="2042"/>
+  </r>
+  <r>
+    <x v="235"/>
+    <x v="32"/>
+    <n v="4096"/>
+    <n v="1919"/>
+    <n v="2177"/>
+  </r>
+  <r>
+    <x v="236"/>
+    <x v="31"/>
+    <n v="4033"/>
+    <n v="1949"/>
+    <n v="2084"/>
+  </r>
+  <r>
+    <x v="237"/>
+    <x v="18"/>
+    <n v="4009"/>
+    <n v="2342"/>
+    <n v="1667"/>
+  </r>
+  <r>
+    <x v="238"/>
+    <x v="22"/>
+    <n v="3993"/>
+    <n v="1802"/>
+    <n v="2191"/>
+  </r>
+  <r>
+    <x v="239"/>
+    <x v="58"/>
+    <n v="3984"/>
+    <n v="1923"/>
+    <n v="2061"/>
+  </r>
+  <r>
+    <x v="240"/>
+    <x v="39"/>
+    <n v="3929"/>
+    <n v="1915"/>
+    <n v="2014"/>
+  </r>
+  <r>
+    <x v="241"/>
+    <x v="50"/>
+    <n v="3901"/>
+    <n v="1806"/>
+    <n v="2095"/>
+  </r>
+  <r>
+    <x v="242"/>
+    <x v="20"/>
+    <n v="3901"/>
+    <n v="2047"/>
+    <n v="1854"/>
+  </r>
+  <r>
+    <x v="243"/>
+    <x v="14"/>
+    <n v="3892"/>
+    <n v="1836"/>
+    <n v="2056"/>
+  </r>
+  <r>
+    <x v="244"/>
+    <x v="7"/>
+    <n v="3854"/>
+    <n v="1904"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="245"/>
+    <x v="50"/>
+    <n v="3824"/>
+    <n v="1823"/>
+    <n v="2001"/>
+  </r>
+  <r>
+    <x v="246"/>
+    <x v="32"/>
+    <n v="3779"/>
+    <n v="1741"/>
+    <n v="2038"/>
+  </r>
+  <r>
+    <x v="247"/>
+    <x v="36"/>
+    <n v="3770"/>
+    <n v="1677"/>
+    <n v="2093"/>
+  </r>
+  <r>
+    <x v="248"/>
+    <x v="29"/>
+    <n v="3673"/>
+    <n v="1702"/>
+    <n v="1971"/>
+  </r>
+  <r>
+    <x v="249"/>
+    <x v="10"/>
+    <n v="3653"/>
+    <n v="1741"/>
+    <n v="1912"/>
+  </r>
+  <r>
+    <x v="250"/>
+    <x v="22"/>
+    <n v="3645"/>
+    <n v="1675"/>
+    <n v="1970"/>
+  </r>
+  <r>
+    <x v="251"/>
+    <x v="50"/>
+    <n v="3628"/>
+    <n v="1743"/>
+    <n v="1885"/>
+  </r>
+  <r>
+    <x v="252"/>
+    <x v="18"/>
+    <n v="3609"/>
+    <n v="1737"/>
+    <n v="1872"/>
+  </r>
+  <r>
+    <x v="253"/>
+    <x v="59"/>
+    <n v="3590"/>
+    <n v="1657"/>
+    <n v="1933"/>
+  </r>
+  <r>
+    <x v="254"/>
+    <x v="27"/>
+    <n v="3545"/>
+    <n v="1847"/>
+    <n v="1698"/>
+  </r>
+  <r>
+    <x v="255"/>
+    <x v="50"/>
+    <n v="3505"/>
+    <n v="1650"/>
+    <n v="1855"/>
+  </r>
+  <r>
+    <x v="256"/>
+    <x v="25"/>
+    <n v="3390"/>
+    <n v="1606"/>
+    <n v="1784"/>
+  </r>
+  <r>
+    <x v="257"/>
+    <x v="41"/>
+    <n v="3372"/>
+    <n v="1663"/>
+    <n v="1709"/>
+  </r>
+  <r>
+    <x v="258"/>
+    <x v="10"/>
+    <n v="3353"/>
+    <n v="1652"/>
+    <n v="1701"/>
+  </r>
+  <r>
+    <x v="259"/>
+    <x v="17"/>
+    <n v="3293"/>
+    <n v="1596"/>
+    <n v="1697"/>
+  </r>
+  <r>
+    <x v="260"/>
+    <x v="47"/>
+    <n v="3269"/>
+    <n v="1562"/>
+    <n v="1707"/>
+  </r>
+  <r>
+    <x v="261"/>
+    <x v="52"/>
+    <n v="3240"/>
+    <n v="1552"/>
+    <n v="1687"/>
+  </r>
+  <r>
+    <x v="262"/>
+    <x v="36"/>
+    <n v="3237"/>
+    <n v="1523"/>
+    <n v="1714"/>
+  </r>
+  <r>
+    <x v="263"/>
+    <x v="2"/>
+    <n v="3180"/>
+    <n v="1532"/>
+    <n v="1648"/>
+  </r>
+  <r>
+    <x v="264"/>
+    <x v="54"/>
+    <n v="3149"/>
+    <n v="1569"/>
+    <n v="1579"/>
+  </r>
+  <r>
+    <x v="265"/>
+    <x v="27"/>
+    <n v="3148"/>
+    <n v="1560"/>
+    <n v="1586"/>
+  </r>
+  <r>
+    <x v="266"/>
+    <x v="15"/>
+    <n v="3146"/>
+    <n v="1597"/>
+    <n v="1549"/>
+  </r>
+  <r>
+    <x v="267"/>
+    <x v="27"/>
+    <n v="3096"/>
+    <n v="1543"/>
+    <n v="1553"/>
+  </r>
+  <r>
+    <x v="268"/>
+    <x v="29"/>
+    <n v="2974"/>
+    <n v="1325"/>
+    <n v="1649"/>
+  </r>
+  <r>
+    <x v="269"/>
+    <x v="5"/>
+    <n v="2942"/>
+    <n v="1417"/>
+    <n v="1525"/>
+  </r>
+  <r>
+    <x v="270"/>
+    <x v="10"/>
+    <n v="2923"/>
+    <n v="1423"/>
+    <n v="1500"/>
+  </r>
+  <r>
+    <x v="271"/>
+    <x v="50"/>
+    <n v="2910"/>
+    <n v="1314"/>
+    <n v="1596"/>
+  </r>
+  <r>
+    <x v="272"/>
+    <x v="2"/>
+    <n v="2893"/>
+    <n v="1429"/>
+    <n v="1464"/>
+  </r>
+  <r>
+    <x v="273"/>
+    <x v="42"/>
+    <n v="2855"/>
+    <n v="1460"/>
+    <n v="1395"/>
+  </r>
+  <r>
+    <x v="274"/>
+    <x v="2"/>
+    <n v="2787"/>
+    <n v="1433"/>
+    <n v="1354"/>
+  </r>
+  <r>
+    <x v="275"/>
+    <x v="2"/>
+    <n v="2775"/>
+    <n v="1306"/>
+    <n v="1469"/>
+  </r>
+  <r>
+    <x v="276"/>
+    <x v="45"/>
+    <n v="2752"/>
+    <n v="1389"/>
+    <n v="1363"/>
+  </r>
+  <r>
+    <x v="277"/>
+    <x v="18"/>
+    <n v="2743"/>
+    <n v="1313"/>
+    <n v="1430"/>
+  </r>
+  <r>
+    <x v="278"/>
+    <x v="47"/>
+    <n v="2708"/>
+    <n v="1448"/>
+    <n v="1260"/>
+  </r>
+  <r>
+    <x v="279"/>
+    <x v="50"/>
+    <n v="2698"/>
+    <n v="1328"/>
+    <n v="1370"/>
+  </r>
+  <r>
+    <x v="280"/>
+    <x v="46"/>
+    <n v="2656"/>
+    <n v="1336"/>
+    <n v="1320"/>
+  </r>
+  <r>
+    <x v="281"/>
+    <x v="2"/>
+    <n v="2573"/>
+    <n v="1212"/>
+    <n v="1361"/>
+  </r>
+  <r>
+    <x v="282"/>
+    <x v="4"/>
+    <n v="2559"/>
+    <n v="1247"/>
+    <n v="1312"/>
+  </r>
+  <r>
+    <x v="283"/>
+    <x v="20"/>
+    <n v="2536"/>
+    <n v="1194"/>
+    <n v="1342"/>
+  </r>
+  <r>
+    <x v="284"/>
+    <x v="3"/>
+    <n v="2532"/>
+    <n v="1189"/>
+    <n v="1343"/>
+  </r>
+  <r>
+    <x v="285"/>
+    <x v="7"/>
+    <n v="2504"/>
+    <n v="1269"/>
+    <n v="1235"/>
+  </r>
+  <r>
+    <x v="286"/>
+    <x v="27"/>
+    <n v="2484"/>
+    <n v="1310"/>
+    <n v="1174"/>
+  </r>
+  <r>
+    <x v="287"/>
+    <x v="3"/>
+    <n v="2452"/>
+    <n v="1186"/>
+    <n v="1266"/>
+  </r>
+  <r>
+    <x v="288"/>
+    <x v="35"/>
+    <n v="2449"/>
+    <n v="1102"/>
+    <n v="1347"/>
+  </r>
+  <r>
+    <x v="289"/>
+    <x v="32"/>
+    <n v="2438"/>
+    <n v="1130"/>
+    <n v="1308"/>
+  </r>
+  <r>
+    <x v="290"/>
+    <x v="40"/>
+    <n v="2420"/>
+    <n v="1087"/>
+    <n v="1333"/>
+  </r>
+  <r>
+    <x v="291"/>
+    <x v="38"/>
+    <n v="2328"/>
+    <n v="1138"/>
+    <n v="1190"/>
+  </r>
+  <r>
+    <x v="292"/>
+    <x v="35"/>
+    <n v="2301"/>
+    <n v="1196"/>
+    <n v="1105"/>
+  </r>
+  <r>
+    <x v="293"/>
+    <x v="4"/>
+    <n v="2293"/>
+    <n v="1092"/>
+    <n v="1201"/>
+  </r>
+  <r>
+    <x v="294"/>
+    <x v="47"/>
+    <n v="2266"/>
+    <n v="1111"/>
+    <n v="1155"/>
+  </r>
+  <r>
+    <x v="295"/>
+    <x v="39"/>
+    <n v="2209"/>
+    <n v="1020"/>
+    <n v="1189"/>
+  </r>
+  <r>
+    <x v="296"/>
+    <x v="10"/>
+    <n v="2190"/>
+    <n v="1037"/>
+    <n v="1153"/>
+  </r>
+  <r>
+    <x v="297"/>
+    <x v="2"/>
+    <n v="2162"/>
+    <n v="1037"/>
+    <n v="1125"/>
+  </r>
+  <r>
+    <x v="298"/>
+    <x v="17"/>
+    <n v="2158"/>
+    <n v="987"/>
+    <n v="1171"/>
+  </r>
+  <r>
+    <x v="299"/>
+    <x v="44"/>
+    <n v="2147"/>
+    <n v="1059"/>
+    <n v="1088"/>
+  </r>
+  <r>
+    <x v="300"/>
+    <x v="7"/>
+    <n v="2144"/>
+    <n v="1137"/>
+    <n v="1007"/>
+  </r>
+  <r>
+    <x v="301"/>
+    <x v="39"/>
+    <n v="2116"/>
+    <n v="1028"/>
+    <n v="1088"/>
+  </r>
+  <r>
+    <x v="302"/>
+    <x v="2"/>
+    <n v="2099"/>
+    <n v="1036"/>
+    <n v="1063"/>
+  </r>
+  <r>
+    <x v="303"/>
+    <x v="24"/>
+    <n v="2096"/>
+    <n v="991"/>
+    <n v="1105"/>
+  </r>
+  <r>
+    <x v="304"/>
+    <x v="34"/>
+    <n v="2043"/>
+    <n v="996"/>
+    <n v="1047"/>
+  </r>
+  <r>
+    <x v="305"/>
+    <x v="3"/>
+    <n v="2026"/>
+    <n v="878"/>
+    <n v="1146"/>
+  </r>
+  <r>
+    <x v="306"/>
+    <x v="11"/>
+    <n v="2015"/>
+    <n v="918"/>
+    <n v="1097"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8AAD3119-14AF-4723-9D70-A9F9EA2AB090}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="5">
+    <pivotField showAll="0">
+      <items count="308">
+        <item x="126"/>
+        <item x="232"/>
+        <item x="220"/>
+        <item x="26"/>
+        <item x="204"/>
+        <item x="94"/>
+        <item x="263"/>
+        <item x="306"/>
+        <item x="100"/>
+        <item x="229"/>
+        <item x="304"/>
+        <item x="128"/>
+        <item x="77"/>
+        <item x="162"/>
+        <item x="36"/>
+        <item x="108"/>
+        <item x="182"/>
+        <item x="214"/>
+        <item x="34"/>
+        <item x="105"/>
+        <item x="167"/>
+        <item x="188"/>
+        <item x="116"/>
+        <item x="196"/>
+        <item x="267"/>
+        <item x="224"/>
+        <item x="166"/>
+        <item x="79"/>
+        <item x="148"/>
+        <item x="130"/>
+        <item x="41"/>
+        <item x="68"/>
+        <item x="84"/>
+        <item x="119"/>
+        <item x="4"/>
+        <item x="90"/>
+        <item x="38"/>
+        <item x="277"/>
+        <item x="198"/>
+        <item x="300"/>
+        <item x="273"/>
+        <item x="250"/>
+        <item x="91"/>
+        <item x="11"/>
+        <item x="170"/>
+        <item x="160"/>
+        <item x="42"/>
+        <item x="161"/>
+        <item x="193"/>
+        <item x="40"/>
+        <item x="139"/>
+        <item x="134"/>
+        <item x="47"/>
+        <item x="85"/>
+        <item x="50"/>
+        <item x="127"/>
+        <item x="284"/>
+        <item x="163"/>
+        <item x="218"/>
+        <item x="73"/>
+        <item x="223"/>
+        <item x="104"/>
+        <item x="29"/>
+        <item x="117"/>
+        <item x="219"/>
+        <item x="13"/>
+        <item x="78"/>
+        <item x="290"/>
+        <item x="107"/>
+        <item x="248"/>
+        <item x="142"/>
+        <item x="71"/>
+        <item x="20"/>
+        <item x="75"/>
+        <item x="175"/>
+        <item x="275"/>
+        <item x="235"/>
+        <item x="183"/>
+        <item x="145"/>
+        <item x="261"/>
+        <item x="286"/>
+        <item x="56"/>
+        <item x="254"/>
+        <item x="172"/>
+        <item x="217"/>
+        <item x="74"/>
+        <item x="292"/>
+        <item x="9"/>
+        <item x="295"/>
+        <item x="228"/>
+        <item x="203"/>
+        <item x="106"/>
+        <item x="216"/>
+        <item x="80"/>
+        <item x="184"/>
+        <item x="51"/>
+        <item x="279"/>
+        <item x="44"/>
+        <item x="211"/>
+        <item x="136"/>
+        <item x="65"/>
+        <item x="293"/>
+        <item x="243"/>
+        <item x="15"/>
+        <item x="268"/>
+        <item x="278"/>
+        <item x="155"/>
+        <item x="237"/>
+        <item x="298"/>
+        <item x="305"/>
+        <item x="187"/>
+        <item x="260"/>
+        <item x="6"/>
+        <item x="137"/>
+        <item x="32"/>
+        <item x="146"/>
+        <item x="177"/>
+        <item x="225"/>
+        <item x="43"/>
+        <item x="95"/>
+        <item x="210"/>
+        <item x="190"/>
+        <item x="133"/>
+        <item x="281"/>
+        <item x="280"/>
+        <item x="246"/>
+        <item x="31"/>
+        <item x="19"/>
+        <item x="5"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="270"/>
+        <item x="66"/>
+        <item x="152"/>
+        <item x="147"/>
+        <item x="197"/>
+        <item x="76"/>
+        <item x="205"/>
+        <item x="70"/>
+        <item x="25"/>
+        <item x="110"/>
+        <item x="24"/>
+        <item x="141"/>
+        <item x="199"/>
+        <item x="115"/>
+        <item x="129"/>
+        <item x="186"/>
+        <item x="265"/>
+        <item x="112"/>
+        <item x="283"/>
+        <item x="39"/>
+        <item x="242"/>
+        <item x="255"/>
+        <item x="251"/>
+        <item x="86"/>
+        <item x="64"/>
+        <item x="123"/>
+        <item x="201"/>
+        <item x="99"/>
+        <item x="67"/>
+        <item x="299"/>
+        <item x="118"/>
+        <item x="98"/>
+        <item x="202"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="154"/>
+        <item x="63"/>
+        <item x="171"/>
+        <item x="62"/>
+        <item x="151"/>
+        <item x="276"/>
+        <item x="59"/>
+        <item x="52"/>
+        <item x="178"/>
+        <item x="249"/>
+        <item x="285"/>
+        <item x="138"/>
+        <item x="122"/>
+        <item x="125"/>
+        <item x="81"/>
+        <item x="215"/>
+        <item x="97"/>
+        <item x="92"/>
+        <item x="103"/>
+        <item x="135"/>
+        <item x="27"/>
+        <item x="35"/>
+        <item x="259"/>
+        <item x="16"/>
+        <item x="124"/>
+        <item x="111"/>
+        <item x="96"/>
+        <item x="230"/>
+        <item x="1"/>
+        <item x="245"/>
+        <item x="49"/>
+        <item x="189"/>
+        <item x="101"/>
+        <item x="191"/>
+        <item x="22"/>
+        <item x="297"/>
+        <item x="169"/>
+        <item x="208"/>
+        <item x="180"/>
+        <item x="264"/>
+        <item x="57"/>
+        <item x="53"/>
+        <item x="209"/>
+        <item x="149"/>
+        <item x="252"/>
+        <item x="93"/>
+        <item x="181"/>
+        <item x="206"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="102"/>
+        <item x="238"/>
+        <item x="158"/>
+        <item x="33"/>
+        <item x="157"/>
+        <item x="37"/>
+        <item x="212"/>
+        <item x="247"/>
+        <item x="195"/>
+        <item x="226"/>
+        <item x="287"/>
+        <item x="21"/>
+        <item x="240"/>
+        <item x="55"/>
+        <item x="165"/>
+        <item x="200"/>
+        <item x="256"/>
+        <item x="294"/>
+        <item x="58"/>
+        <item x="72"/>
+        <item x="236"/>
+        <item x="253"/>
+        <item x="28"/>
+        <item x="241"/>
+        <item x="301"/>
+        <item x="113"/>
+        <item x="258"/>
+        <item x="274"/>
+        <item x="192"/>
+        <item x="10"/>
+        <item x="257"/>
+        <item x="179"/>
+        <item x="88"/>
+        <item x="120"/>
+        <item x="269"/>
+        <item x="60"/>
+        <item x="194"/>
+        <item x="156"/>
+        <item x="244"/>
+        <item x="302"/>
+        <item x="87"/>
+        <item x="3"/>
+        <item x="114"/>
+        <item x="207"/>
+        <item x="289"/>
+        <item x="132"/>
+        <item x="150"/>
+        <item x="222"/>
+        <item x="233"/>
+        <item x="239"/>
+        <item x="168"/>
+        <item x="227"/>
+        <item x="61"/>
+        <item x="291"/>
+        <item x="144"/>
+        <item x="303"/>
+        <item x="164"/>
+        <item x="176"/>
+        <item x="174"/>
+        <item x="231"/>
+        <item x="143"/>
+        <item x="153"/>
+        <item x="109"/>
+        <item x="271"/>
+        <item x="83"/>
+        <item x="131"/>
+        <item x="266"/>
+        <item x="82"/>
+        <item x="7"/>
+        <item x="140"/>
+        <item x="213"/>
+        <item x="185"/>
+        <item x="272"/>
+        <item x="282"/>
+        <item x="48"/>
+        <item x="173"/>
+        <item x="30"/>
+        <item x="159"/>
+        <item x="121"/>
+        <item x="45"/>
+        <item x="23"/>
+        <item x="221"/>
+        <item x="296"/>
+        <item x="46"/>
+        <item x="69"/>
+        <item x="54"/>
+        <item x="288"/>
+        <item x="89"/>
+        <item x="234"/>
+        <item x="262"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="61">
+        <item x="44"/>
+        <item x="54"/>
+        <item x="57"/>
+        <item x="24"/>
+        <item x="22"/>
+        <item x="52"/>
+        <item x="26"/>
+        <item x="33"/>
+        <item x="31"/>
+        <item x="19"/>
+        <item x="53"/>
+        <item x="7"/>
+        <item x="14"/>
+        <item x="27"/>
+        <item x="3"/>
+        <item x="11"/>
+        <item x="29"/>
+        <item x="50"/>
+        <item x="5"/>
+        <item x="56"/>
+        <item x="40"/>
+        <item x="20"/>
+        <item x="37"/>
+        <item x="35"/>
+        <item x="42"/>
+        <item x="10"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="12"/>
+        <item x="30"/>
+        <item x="17"/>
+        <item x="23"/>
+        <item x="1"/>
+        <item x="32"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="51"/>
+        <item x="34"/>
+        <item x="25"/>
+        <item x="59"/>
+        <item x="43"/>
+        <item x="13"/>
+        <item x="39"/>
+        <item x="18"/>
+        <item x="21"/>
+        <item x="38"/>
+        <item x="36"/>
+        <item x="28"/>
+        <item x="46"/>
+        <item x="8"/>
+        <item x="45"/>
+        <item x="9"/>
+        <item x="16"/>
+        <item x="4"/>
+        <item x="55"/>
+        <item x="49"/>
+        <item x="58"/>
+        <item x="15"/>
+        <item x="41"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1494,6 +4571,476 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E2D28C-D87A-4031-946F-BC989C39C29A}">
+  <dimension ref="A3:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="8" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="8" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="7" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="7" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="132" max="133" width="10" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="6" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="13" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="8" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="10" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="11" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="7" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="8" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="12" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="8" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="14" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="8" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="9" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="10" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="279" max="279" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="281" max="283" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="284" max="284" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="285" max="285" width="7" bestFit="1" customWidth="1"/>
+    <col min="286" max="286" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="287" max="287" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="288" max="288" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="289" max="289" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="290" max="290" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="291" max="291" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="292" max="292" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="293" max="293" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="294" max="294" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="295" max="295" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="296" max="296" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="297" max="297" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="298" max="298" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="299" max="299" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="300" max="300" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="301" max="301" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="302" max="302" width="10" bestFit="1" customWidth="1"/>
+    <col min="303" max="303" width="9" bestFit="1" customWidth="1"/>
+    <col min="304" max="304" width="8" bestFit="1" customWidth="1"/>
+    <col min="305" max="305" width="12" bestFit="1" customWidth="1"/>
+    <col min="306" max="306" width="6" bestFit="1" customWidth="1"/>
+    <col min="307" max="307" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="308" max="308" width="5" bestFit="1" customWidth="1"/>
+    <col min="309" max="309" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="310" max="310" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="311" max="311" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="312" max="312" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="313" max="313" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="314" max="314" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="315" max="315" width="5" bestFit="1" customWidth="1"/>
+    <col min="316" max="316" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="317" max="317" width="15" bestFit="1" customWidth="1"/>
+    <col min="318" max="318" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="319" max="319" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="320" max="320" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="321" max="321" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="322" max="322" width="18" bestFit="1" customWidth="1"/>
+    <col min="323" max="323" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="324" max="324" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="325" max="325" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="326" max="326" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="327" max="327" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="328" max="328" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="329" max="329" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="330" max="330" width="16" bestFit="1" customWidth="1"/>
+    <col min="331" max="331" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="332" max="332" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="333" max="333" width="19" bestFit="1" customWidth="1"/>
+    <col min="334" max="334" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="335" max="335" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="336" max="336" width="17" bestFit="1" customWidth="1"/>
+    <col min="337" max="337" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="338" max="339" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="340" max="340" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="341" max="341" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="342" max="342" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="343" max="343" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="344" max="344" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="345" max="345" width="8" bestFit="1" customWidth="1"/>
+    <col min="346" max="346" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="347" max="347" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="348" max="348" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="349" max="349" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="350" max="350" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="351" max="351" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="352" max="352" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="353" max="353" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="354" max="354" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="355" max="355" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="356" max="356" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="357" max="357" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="358" max="358" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="359" max="359" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="360" max="360" width="6" bestFit="1" customWidth="1"/>
+    <col min="361" max="361" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="362" max="362" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="363" max="363" width="7" bestFit="1" customWidth="1"/>
+    <col min="364" max="364" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="365" max="365" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="366" max="366" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="367" max="367" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="368" max="368" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="369" max="369" width="10.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -1501,7 +5048,7 @@
   <dimension ref="A1:H309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -7081,6 +10628,7 @@
       <c r="G309" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E308" xr:uid="{E9DD0FE2-7D16-461A-A36B-8472386F1D90}"/>
   <conditionalFormatting sqref="A292:A306">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
@@ -7094,7 +10642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
